--- a/server/task_data_export.xlsx
+++ b/server/task_data_export.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="23">
   <si>
     <t>period</t>
   </si>
@@ -53,25 +53,34 @@
     <t>taskId</t>
   </si>
   <si>
-    <t>frontend task</t>
-  </si>
-  <si>
-    <t>Do more</t>
+    <t>q1</t>
+  </si>
+  <si>
+    <t>Task</t>
+  </si>
+  <si>
+    <t>Good</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>not completed</t>
-  </si>
-  <si>
-    <t>backend task</t>
-  </si>
-  <si>
-    <t>Do less</t>
-  </si>
-  <si>
-    <t>completed</t>
+    <t>Pending</t>
+  </si>
+  <si>
+    <t>Task2</t>
+  </si>
+  <si>
+    <t>meet client expectations</t>
+  </si>
+  <si>
+    <t>development</t>
+  </si>
+  <si>
+    <t>dev</t>
+  </si>
+  <si>
+    <t>nice</t>
   </si>
 </sst>
 </file>
@@ -110,8 +119,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
@@ -120,7 +135,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:M4"/>
+  <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -168,15 +183,17 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="0"/>
+      <c r="A3" t="s" s="0">
+        <v>13</v>
+      </c>
       <c r="B3" t="n" s="0">
-        <v>12.0</v>
+        <v>11.0</v>
       </c>
       <c r="C3" t="n" s="0">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E3" t="n" s="0">
         <v>20.0</v>
@@ -188,57 +205,180 @@
         <v>3.0</v>
       </c>
       <c r="H3" t="n" s="0">
-        <v>232.0</v>
+        <v>1.0</v>
       </c>
       <c r="I3" t="s" s="0">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J3" t="s" s="0">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K3" t="s" s="0">
-        <v>16</v>
-      </c>
-      <c r="L3" s="0"/>
+        <v>17</v>
+      </c>
+      <c r="L3" t="n" s="2">
+        <v>45287.229166666664</v>
+      </c>
       <c r="M3" t="n" s="0">
         <v>1.0</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="0"/>
+      <c r="A4" t="s" s="0">
+        <v>13</v>
+      </c>
       <c r="B4" t="n" s="0">
-        <v>10.0</v>
+        <v>12.0</v>
       </c>
       <c r="C4" t="n" s="0">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E4" t="n" s="0">
-        <v>30.0</v>
-      </c>
-      <c r="F4" t="n" s="2">
-        <v>45257.229166666664</v>
+        <v>80.0</v>
+      </c>
+      <c r="F4" t="n" s="3">
+        <v>44942.229166666664</v>
       </c>
       <c r="G4" t="n" s="0">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="H4" t="n" s="0">
-        <v>221.0</v>
-      </c>
-      <c r="I4" t="s" s="0">
-        <v>18</v>
-      </c>
+        <v>1.0</v>
+      </c>
+      <c r="I4" s="0"/>
       <c r="J4" t="s" s="0">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K4" t="s" s="0">
-        <v>19</v>
-      </c>
-      <c r="L4" s="0"/>
+        <v>17</v>
+      </c>
+      <c r="L4" t="n" s="4">
+        <v>44953.229166666664</v>
+      </c>
       <c r="M4" t="n" s="0">
         <v>2.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="B5" t="n" s="0">
+        <v>11.0</v>
+      </c>
+      <c r="C5" t="n" s="0">
+        <v>3.0</v>
+      </c>
+      <c r="D5" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="E5" t="n" s="0">
+        <v>10.0</v>
+      </c>
+      <c r="F5" t="n" s="5">
+        <v>45307.229166666664</v>
+      </c>
+      <c r="G5" t="n" s="0">
+        <v>3.0</v>
+      </c>
+      <c r="H5" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="I5" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="J5" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="K5" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="L5" t="n" s="6">
+        <v>45318.229166666664</v>
+      </c>
+      <c r="M5" t="n" s="0">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="B6" t="n" s="0">
+        <v>11.0</v>
+      </c>
+      <c r="C6" t="n" s="0">
+        <v>5.0</v>
+      </c>
+      <c r="D6" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="E6" t="n" s="0">
+        <v>10.0</v>
+      </c>
+      <c r="F6" t="n" s="7">
+        <v>45307.229166666664</v>
+      </c>
+      <c r="G6" t="n" s="0">
+        <v>3.0</v>
+      </c>
+      <c r="H6" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="I6" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="J6" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="K6" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="L6" t="n" s="8">
+        <v>45318.229166666664</v>
+      </c>
+      <c r="M6" t="n" s="0">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="B7" t="n" s="0">
+        <v>14.0</v>
+      </c>
+      <c r="C7" t="n" s="0">
+        <v>3.0</v>
+      </c>
+      <c r="D7" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="E7" t="n" s="0">
+        <v>20.0</v>
+      </c>
+      <c r="F7" s="0"/>
+      <c r="G7" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="H7" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="I7" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="J7" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="K7" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="L7" s="0"/>
+      <c r="M7" t="n" s="0">
+        <v>5.0</v>
       </c>
     </row>
   </sheetData>
